--- a/Predictions/26/buckets.xlsx
+++ b/Predictions/26/buckets.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="fpxFHuA81uwRMz0tlI+5NVkomZ2z92EOswvbo1IF1zs="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="4wdJA0q8YbH0VY9b/G4bSOUrj0gGbHaCFUk5X7Lv+4M="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Lower</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>MAE</t>
+  </si>
+  <si>
+    <t>MAPE (%)</t>
   </si>
 </sst>
 </file>
@@ -85,14 +88,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -333,6 +335,9 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -344,7 +349,7 @@
       <c r="C2" s="2">
         <v>210129.2573000001</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>1972.0</v>
       </c>
       <c r="E2" s="2">
@@ -352,6 +357,9 @@
       </c>
       <c r="F2" s="2">
         <v>3566.68902634525</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.255236593400645</v>
       </c>
     </row>
     <row r="3">
@@ -364,7 +372,7 @@
       <c r="C3" s="2">
         <v>348685.2176000001</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>1660.0</v>
       </c>
       <c r="E3" s="2">
@@ -372,6 +380,9 @@
       </c>
       <c r="F3" s="2">
         <v>6528.315617661512</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.462910522122181</v>
       </c>
     </row>
     <row r="4">
@@ -384,7 +395,7 @@
       <c r="C4" s="2">
         <v>487241.1779000002</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>480.0</v>
       </c>
       <c r="E4" s="2">
@@ -392,6 +403,9 @@
       </c>
       <c r="F4" s="2">
         <v>10076.24321683306</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.428784292095579</v>
       </c>
     </row>
     <row r="5">
@@ -404,7 +418,7 @@
       <c r="C5" s="2">
         <v>625797.1382000003</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>239.0</v>
       </c>
       <c r="E5" s="2">
@@ -412,6 +426,9 @@
       </c>
       <c r="F5" s="2">
         <v>10927.51505649843</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.987158198854045</v>
       </c>
     </row>
     <row r="6">
@@ -424,7 +441,7 @@
       <c r="C6" s="2">
         <v>764353.0985000004</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>130.0</v>
       </c>
       <c r="E6" s="2">
@@ -432,6 +449,9 @@
       </c>
       <c r="F6" s="2">
         <v>13953.72684545245</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.028960986098985</v>
       </c>
     </row>
     <row r="7">
@@ -444,7 +464,7 @@
       <c r="C7" s="2">
         <v>902909.0588000005</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>62.0</v>
       </c>
       <c r="E7" s="2">
@@ -452,6 +472,9 @@
       </c>
       <c r="F7" s="2">
         <v>15008.92133601768</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.834679477220427</v>
       </c>
     </row>
     <row r="8">
@@ -464,7 +487,7 @@
       <c r="C8" s="2">
         <v>1041465.0191</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>25.0</v>
       </c>
       <c r="E8" s="2">
@@ -472,6 +495,9 @@
       </c>
       <c r="F8" s="2">
         <v>16056.17965931508</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.619572367447352</v>
       </c>
     </row>
     <row r="9">
@@ -484,7 +510,7 @@
       <c r="C9" s="2">
         <v>1180020.979400001</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>29.0</v>
       </c>
       <c r="E9" s="2">
@@ -492,6 +518,9 @@
       </c>
       <c r="F9" s="2">
         <v>26072.11950956451</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.32732732624845</v>
       </c>
     </row>
     <row r="10">
@@ -504,7 +533,7 @@
       <c r="C10" s="2">
         <v>1318576.939700001</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>18.0</v>
       </c>
       <c r="E10" s="2">
@@ -512,6 +541,9 @@
       </c>
       <c r="F10" s="2">
         <v>16084.643926143</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.287854700792923</v>
       </c>
     </row>
     <row r="11">
@@ -524,7 +556,7 @@
       <c r="C11" s="2">
         <v>1457132.900000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>12.0</v>
       </c>
       <c r="E11" s="2">
@@ -532,6 +564,9 @@
       </c>
       <c r="F11" s="2">
         <v>15179.09605389816</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.085917044093882</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1551,6 +1586,9 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -1562,7 +1600,7 @@
       <c r="C2" s="2">
         <v>213394.6269</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>2833.0</v>
       </c>
       <c r="E2" s="2">
@@ -1570,6 +1608,9 @@
       </c>
       <c r="F2" s="2">
         <v>3618.124176467398</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2.268303824219051</v>
       </c>
     </row>
     <row r="3">
@@ -1582,7 +1623,7 @@
       <c r="C3" s="2">
         <v>354981.1128000001</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>2182.0</v>
       </c>
       <c r="E3" s="2">
@@ -1590,6 +1631,9 @@
       </c>
       <c r="F3" s="2">
         <v>6569.506790990179</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2.445855961345375</v>
       </c>
     </row>
     <row r="4">
@@ -1602,7 +1646,7 @@
       <c r="C4" s="2">
         <v>496567.5987000001</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>689.0</v>
       </c>
       <c r="E4" s="2">
@@ -1610,6 +1654,9 @@
       </c>
       <c r="F4" s="2">
         <v>9370.727956087274</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.205383194095748</v>
       </c>
     </row>
     <row r="5">
@@ -1622,7 +1669,7 @@
       <c r="C5" s="2">
         <v>638154.0846000002</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>350.0</v>
       </c>
       <c r="E5" s="2">
@@ -1630,6 +1677,9 @@
       </c>
       <c r="F5" s="2">
         <v>11593.83803251207</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.067541739771311</v>
       </c>
     </row>
     <row r="6">
@@ -1642,7 +1692,7 @@
       <c r="C6" s="2">
         <v>779740.5705000003</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>163.0</v>
       </c>
       <c r="E6" s="2">
@@ -1650,6 +1700,9 @@
       </c>
       <c r="F6" s="2">
         <v>14961.85334592484</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2.143797944582587</v>
       </c>
     </row>
     <row r="7">
@@ -1662,7 +1715,7 @@
       <c r="C7" s="2">
         <v>921327.0564000002</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>70.0</v>
       </c>
       <c r="E7" s="2">
@@ -1670,6 +1723,9 @@
       </c>
       <c r="F7" s="2">
         <v>13881.99509002313</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.658035079533228</v>
       </c>
     </row>
     <row r="8">
@@ -1682,7 +1738,7 @@
       <c r="C8" s="2">
         <v>1062913.5423</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>56.0</v>
       </c>
       <c r="E8" s="2">
@@ -1690,6 +1746,9 @@
       </c>
       <c r="F8" s="2">
         <v>20504.44697436658</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.058600022212812</v>
       </c>
     </row>
     <row r="9">
@@ -1702,7 +1761,7 @@
       <c r="C9" s="2">
         <v>1204500.028200001</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>21.0</v>
       </c>
       <c r="E9" s="2">
@@ -1710,6 +1769,9 @@
       </c>
       <c r="F9" s="2">
         <v>32319.28842883563</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2.852344253442398</v>
       </c>
     </row>
     <row r="10">
@@ -1722,7 +1784,7 @@
       <c r="C10" s="2">
         <v>1346086.5141</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>21.0</v>
       </c>
       <c r="E10" s="2">
@@ -1730,6 +1792,9 @@
       </c>
       <c r="F10" s="2">
         <v>15542.85299266568</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.198044042601601</v>
       </c>
     </row>
     <row r="11">
@@ -1742,7 +1807,7 @@
       <c r="C11" s="2">
         <v>1487673.000000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>19.0</v>
       </c>
       <c r="E11" s="2">
@@ -1750,6 +1815,9 @@
       </c>
       <c r="F11" s="2">
         <v>20431.10175276776</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.441060890721803</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
